--- a/public/data/questions.xlsx
+++ b/public/data/questions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="126">
   <si>
     <t xml:space="preserve">Question</t>
   </si>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">Virtual Functions</t>
   </si>
   <si>
-    <t xml:space="preserve">f</t>
+    <t xml:space="preserve">d</t>
   </si>
   <si>
     <t xml:space="preserve">Which of these won’t return any value?</t>
@@ -134,9 +134,6 @@
   </si>
   <si>
     <t xml:space="preserve">It would not return any value to the caller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d</t>
   </si>
   <si>
     <t xml:space="preserve">__________ is an ability of grouping certain lines of code that we need to include in our program?</t>
@@ -416,6 +413,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -437,11 +435,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -531,10 +531,10 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="H:H D6"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="55.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.71"/>
@@ -678,27 +678,27 @@
         <v>37</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>32</v>
@@ -706,22 +706,22 @@
     </row>
     <row r="8" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>14</v>
@@ -729,22 +729,22 @@
     </row>
     <row r="9" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>26</v>
@@ -752,45 +752,45 @@
     </row>
     <row r="10" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="H10" s="0" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>14</v>
@@ -798,22 +798,22 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>32</v>
@@ -821,22 +821,22 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>26</v>
@@ -844,22 +844,22 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>26</v>
@@ -867,22 +867,22 @@
     </row>
     <row r="15" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>32</v>
@@ -890,22 +890,22 @@
     </row>
     <row r="16" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>14</v>
@@ -913,45 +913,45 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="H17" s="0" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>14</v>
@@ -959,22 +959,22 @@
     </row>
     <row r="19" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>32</v>
@@ -982,22 +982,22 @@
     </row>
     <row r="20" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>26</v>
@@ -1005,71 +1005,71 @@
     </row>
     <row r="21" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="H21" s="0" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="C22" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="H22" s="0" t="s">
         <v>119</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="101.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C23" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="H23" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
